--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지16.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DooDoo\Desktop\05.25 학습\나의 해방일지_학습 (15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2494D69-0EC6-4438-B045-03D600A2592A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8D0D9D-44FC-49F3-9CA0-B26DF699F1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2914" yWindow="2914" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="1795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="1796">
   <si>
     <t>Time</t>
   </si>
@@ -5422,6 +5422,9 @@
   <si>
     <t>fixed-label</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
   </si>
 </sst>
 </file>
@@ -5793,20 +5796,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E910"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="52.5" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="16.2109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5820,10 +5822,10 @@
         <v>1794</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5838,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5853,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5868,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5883,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5901,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5916,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5931,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5946,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5961,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5976,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5991,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -6009,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -6024,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -6039,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -6054,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -6072,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -6090,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -6105,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -6123,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -6153,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -6168,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -6183,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -6198,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -6213,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -6228,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -6243,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -6276,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -6291,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6306,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -6321,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -6336,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -6351,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -6369,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -6387,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -6402,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -6417,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -6432,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -6447,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -6462,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -6477,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -6492,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -6522,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -6537,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -6552,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -6570,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -6585,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -6600,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -6615,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -6630,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -6645,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -6660,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -6675,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -6690,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -6705,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -6723,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>115</v>
       </c>
@@ -6738,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -6753,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -6768,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -6783,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -6813,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -6828,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>129</v>
       </c>
@@ -6843,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>131</v>
       </c>
@@ -6858,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -6873,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -6888,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>137</v>
       </c>
@@ -6903,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>139</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -6936,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>143</v>
       </c>
@@ -6954,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>145</v>
       </c>
@@ -6969,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>147</v>
       </c>
@@ -6984,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>149</v>
       </c>
@@ -6999,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -7014,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -7029,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>155</v>
       </c>
@@ -7044,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>157</v>
       </c>
@@ -7059,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>159</v>
       </c>
@@ -7074,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -7089,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -7104,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -7119,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>167</v>
       </c>
@@ -7134,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -7149,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>171</v>
       </c>
@@ -7164,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>173</v>
       </c>
@@ -7179,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>175</v>
       </c>
@@ -7194,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>177</v>
       </c>
@@ -7209,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>179</v>
       </c>
@@ -7224,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>181</v>
       </c>
@@ -7239,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -7254,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>185</v>
       </c>
@@ -7269,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>187</v>
       </c>
@@ -7284,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>189</v>
       </c>
@@ -7299,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>191</v>
       </c>
@@ -7314,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>193</v>
       </c>
@@ -7329,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>195</v>
       </c>
@@ -7344,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>197</v>
       </c>
@@ -7359,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>199</v>
       </c>
@@ -7374,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>201</v>
       </c>
@@ -7389,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>203</v>
       </c>
@@ -7404,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>205</v>
       </c>
@@ -7419,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -7434,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>209</v>
       </c>
@@ -7449,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>211</v>
       </c>
@@ -7464,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>213</v>
       </c>
@@ -7479,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>215</v>
       </c>
@@ -7494,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>217</v>
       </c>
@@ -7512,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>219</v>
       </c>
@@ -7527,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>221</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>223</v>
       </c>
@@ -7557,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>225</v>
       </c>
@@ -7572,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>227</v>
       </c>
@@ -7587,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>229</v>
       </c>
@@ -7602,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>231</v>
       </c>
@@ -7617,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>233</v>
       </c>
@@ -7632,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>235</v>
       </c>
@@ -7650,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>237</v>
       </c>
@@ -7668,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>239</v>
       </c>
@@ -7686,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>241</v>
       </c>
@@ -7704,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>243</v>
       </c>
@@ -7719,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>245</v>
       </c>
@@ -7734,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>247</v>
       </c>
@@ -7749,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>249</v>
       </c>
@@ -7767,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -7782,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>253</v>
       </c>
@@ -7797,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>255</v>
       </c>
@@ -7812,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>257</v>
       </c>
@@ -7827,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>259</v>
       </c>
@@ -7842,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>261</v>
       </c>
@@ -7857,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>263</v>
       </c>
@@ -7872,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>265</v>
       </c>
@@ -7887,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>267</v>
       </c>
@@ -7905,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>269</v>
       </c>
@@ -7920,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>271</v>
       </c>
@@ -7935,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>273</v>
       </c>
@@ -7950,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>275</v>
       </c>
@@ -7965,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>277</v>
       </c>
@@ -7980,7 +7982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>279</v>
       </c>
@@ -7995,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>281</v>
       </c>
@@ -8010,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>283</v>
       </c>
@@ -8025,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>285</v>
       </c>
@@ -8040,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>287</v>
       </c>
@@ -8055,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>289</v>
       </c>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>291</v>
       </c>
@@ -8085,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>293</v>
       </c>
@@ -8100,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>295</v>
       </c>
@@ -8115,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>297</v>
       </c>
@@ -8130,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>299</v>
       </c>
@@ -8145,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>301</v>
       </c>
@@ -8163,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>303</v>
       </c>
@@ -8178,7 +8180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>305</v>
       </c>
@@ -8193,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>307</v>
       </c>
@@ -8208,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>309</v>
       </c>
@@ -8223,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>311</v>
       </c>
@@ -8238,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>313</v>
       </c>
@@ -8253,7 +8255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>315</v>
       </c>
@@ -8268,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>315</v>
       </c>
@@ -8283,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>318</v>
       </c>
@@ -8298,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>320</v>
       </c>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>322</v>
       </c>
@@ -8331,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>324</v>
       </c>
@@ -8346,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>326</v>
       </c>
@@ -8361,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>328</v>
       </c>
@@ -8376,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>330</v>
       </c>
@@ -8394,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>332</v>
       </c>
@@ -8409,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>334</v>
       </c>
@@ -8427,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>336</v>
       </c>
@@ -8442,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>338</v>
       </c>
@@ -8457,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>340</v>
       </c>
@@ -8472,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>342</v>
       </c>
@@ -8487,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>344</v>
       </c>
@@ -8502,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>346</v>
       </c>
@@ -8517,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>348</v>
       </c>
@@ -8532,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>350</v>
       </c>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>352</v>
       </c>
@@ -8562,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>354</v>
       </c>
@@ -8577,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>356</v>
       </c>
@@ -8592,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>358</v>
       </c>
@@ -8607,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>360</v>
       </c>
@@ -8622,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>362</v>
       </c>
@@ -8637,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>363</v>
       </c>
@@ -8652,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>365</v>
       </c>
@@ -8667,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>367</v>
       </c>
@@ -8682,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>369</v>
       </c>
@@ -8697,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>371</v>
       </c>
@@ -8712,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>373</v>
       </c>
@@ -8727,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>375</v>
       </c>
@@ -8742,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>377</v>
       </c>
@@ -8757,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>379</v>
       </c>
@@ -8772,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>381</v>
       </c>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>383</v>
       </c>
@@ -8802,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>385</v>
       </c>
@@ -8817,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>387</v>
       </c>
@@ -8832,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>389</v>
       </c>
@@ -8847,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>391</v>
       </c>
@@ -8862,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>393</v>
       </c>
@@ -8877,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>395</v>
       </c>
@@ -8892,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>397</v>
       </c>
@@ -8907,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>399</v>
       </c>
@@ -8925,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>401</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>403</v>
       </c>
@@ -8958,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>405</v>
       </c>
@@ -8973,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>407</v>
       </c>
@@ -8991,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>409</v>
       </c>
@@ -9009,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>411</v>
       </c>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>413</v>
       </c>
@@ -9042,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>415</v>
       </c>
@@ -9057,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>417</v>
       </c>
@@ -9072,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>419</v>
       </c>
@@ -9087,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>421</v>
       </c>
@@ -9102,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>423</v>
       </c>
@@ -9117,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>425</v>
       </c>
@@ -9132,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>427</v>
       </c>
@@ -9147,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>429</v>
       </c>
@@ -9162,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>431</v>
       </c>
@@ -9177,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>433</v>
       </c>
@@ -9192,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>435</v>
       </c>
@@ -9210,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>437</v>
       </c>
@@ -9225,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>439</v>
       </c>
@@ -9240,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>441</v>
       </c>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>443</v>
       </c>
@@ -9273,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>445</v>
       </c>
@@ -9291,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>447</v>
       </c>
@@ -9306,7 +9308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>449</v>
       </c>
@@ -9321,7 +9323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>451</v>
       </c>
@@ -9336,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>453</v>
       </c>
@@ -9351,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>455</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>457</v>
       </c>
@@ -9384,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>459</v>
       </c>
@@ -9402,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>461</v>
       </c>
@@ -9417,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>463</v>
       </c>
@@ -9435,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>465</v>
       </c>
@@ -9450,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>467</v>
       </c>
@@ -9465,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>469</v>
       </c>
@@ -9480,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>471</v>
       </c>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>473</v>
       </c>
@@ -9510,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>475</v>
       </c>
@@ -9525,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>477</v>
       </c>
@@ -9543,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>479</v>
       </c>
@@ -9558,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>481</v>
       </c>
@@ -9573,7 +9575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>483</v>
       </c>
@@ -9588,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>485</v>
       </c>
@@ -9603,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>487</v>
       </c>
@@ -9618,7 +9620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>489</v>
       </c>
@@ -9633,7 +9635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>491</v>
       </c>
@@ -9648,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>493</v>
       </c>
@@ -9663,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>495</v>
       </c>
@@ -9678,7 +9680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>497</v>
       </c>
@@ -9693,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>499</v>
       </c>
@@ -9708,7 +9710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>501</v>
       </c>
@@ -9723,7 +9725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>503</v>
       </c>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>505</v>
       </c>
@@ -9753,7 +9755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>507</v>
       </c>
@@ -9768,7 +9770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>509</v>
       </c>
@@ -9783,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>511</v>
       </c>
@@ -9798,7 +9800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>513</v>
       </c>
@@ -9813,7 +9815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>515</v>
       </c>
@@ -9828,7 +9830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>517</v>
       </c>
@@ -9843,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>519</v>
       </c>
@@ -9858,7 +9860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>521</v>
       </c>
@@ -9873,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>523</v>
       </c>
@@ -9888,7 +9890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>525</v>
       </c>
@@ -9903,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>527</v>
       </c>
@@ -9918,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>528</v>
       </c>
@@ -9933,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>530</v>
       </c>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>532</v>
       </c>
@@ -9963,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>534</v>
       </c>
@@ -9978,7 +9980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>536</v>
       </c>
@@ -9993,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>538</v>
       </c>
@@ -10008,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>540</v>
       </c>
@@ -10023,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>542</v>
       </c>
@@ -10038,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>544</v>
       </c>
@@ -10053,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>546</v>
       </c>
@@ -10068,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>548</v>
       </c>
@@ -10083,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>550</v>
       </c>
@@ -10098,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>552</v>
       </c>
@@ -10113,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>554</v>
       </c>
@@ -10128,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>556</v>
       </c>
@@ -10143,7 +10145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>558</v>
       </c>
@@ -10158,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>560</v>
       </c>
@@ -10173,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>562</v>
       </c>
@@ -10188,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>564</v>
       </c>
@@ -10203,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>566</v>
       </c>
@@ -10218,7 +10220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>568</v>
       </c>
@@ -10233,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>570</v>
       </c>
@@ -10248,7 +10250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>572</v>
       </c>
@@ -10263,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>574</v>
       </c>
@@ -10278,7 +10280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>576</v>
       </c>
@@ -10293,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>578</v>
       </c>
@@ -10308,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>580</v>
       </c>
@@ -10326,7 +10328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>582</v>
       </c>
@@ -10341,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>584</v>
       </c>
@@ -10356,7 +10358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>586</v>
       </c>
@@ -10371,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>588</v>
       </c>
@@ -10386,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>590</v>
       </c>
@@ -10401,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>592</v>
       </c>
@@ -10416,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>594</v>
       </c>
@@ -10431,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>596</v>
       </c>
@@ -10446,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>597</v>
       </c>
@@ -10461,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>599</v>
       </c>
@@ -10479,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>601</v>
       </c>
@@ -10494,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>603</v>
       </c>
@@ -10509,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>605</v>
       </c>
@@ -10524,7 +10526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>607</v>
       </c>
@@ -10539,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>609</v>
       </c>
@@ -10554,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>611</v>
       </c>
@@ -10569,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>613</v>
       </c>
@@ -10584,7 +10586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>615</v>
       </c>
@@ -10599,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>617</v>
       </c>
@@ -10614,7 +10616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>619</v>
       </c>
@@ -10629,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>621</v>
       </c>
@@ -10644,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>623</v>
       </c>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>625</v>
       </c>
@@ -10674,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>627</v>
       </c>
@@ -10689,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>629</v>
       </c>
@@ -10704,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>631</v>
       </c>
@@ -10719,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>633</v>
       </c>
@@ -10734,7 +10736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>635</v>
       </c>
@@ -10752,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>637</v>
       </c>
@@ -10767,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>639</v>
       </c>
@@ -10782,7 +10784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>641</v>
       </c>
@@ -10797,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>643</v>
       </c>
@@ -10812,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>644</v>
       </c>
@@ -10827,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>646</v>
       </c>
@@ -10842,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>648</v>
       </c>
@@ -10860,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>650</v>
       </c>
@@ -10875,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>652</v>
       </c>
@@ -10893,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>654</v>
       </c>
@@ -10908,7 +10910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>656</v>
       </c>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>658</v>
       </c>
@@ -10938,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>660</v>
       </c>
@@ -10953,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>662</v>
       </c>
@@ -10968,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>664</v>
       </c>
@@ -10983,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>666</v>
       </c>
@@ -11001,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>668</v>
       </c>
@@ -11016,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>670</v>
       </c>
@@ -11034,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>672</v>
       </c>
@@ -11049,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>674</v>
       </c>
@@ -11064,7 +11066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>676</v>
       </c>
@@ -11079,7 +11081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>678</v>
       </c>
@@ -11094,7 +11096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>680</v>
       </c>
@@ -11109,7 +11111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>682</v>
       </c>
@@ -11124,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>684</v>
       </c>
@@ -11142,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>686</v>
       </c>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>688</v>
       </c>
@@ -11175,7 +11177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>690</v>
       </c>
@@ -11190,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>692</v>
       </c>
@@ -11205,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>694</v>
       </c>
@@ -11220,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>696</v>
       </c>
@@ -11235,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>698</v>
       </c>
@@ -11250,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>700</v>
       </c>
@@ -11268,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>702</v>
       </c>
@@ -11283,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>704</v>
       </c>
@@ -11298,7 +11300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>706</v>
       </c>
@@ -11313,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>708</v>
       </c>
@@ -11328,7 +11330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>710</v>
       </c>
@@ -11346,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>712</v>
       </c>
@@ -11361,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>714</v>
       </c>
@@ -11379,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>716</v>
       </c>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>718</v>
       </c>
@@ -11409,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>720</v>
       </c>
@@ -11424,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>722</v>
       </c>
@@ -11439,7 +11441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>724</v>
       </c>
@@ -11454,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>726</v>
       </c>
@@ -11472,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>728</v>
       </c>
@@ -11487,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>730</v>
       </c>
@@ -11502,7 +11504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>732</v>
       </c>
@@ -11517,7 +11519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>734</v>
       </c>
@@ -11532,7 +11534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>736</v>
       </c>
@@ -11547,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>738</v>
       </c>
@@ -11562,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>740</v>
       </c>
@@ -11580,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>742</v>
       </c>
@@ -11598,7 +11600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>744</v>
       </c>
@@ -11613,7 +11615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>746</v>
       </c>
@@ -11628,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>748</v>
       </c>
@@ -11643,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>750</v>
       </c>
@@ -11658,7 +11660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>752</v>
       </c>
@@ -11673,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>754</v>
       </c>
@@ -11688,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>756</v>
       </c>
@@ -11703,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>758</v>
       </c>
@@ -11718,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>760</v>
       </c>
@@ -11736,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>762</v>
       </c>
@@ -11751,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>764</v>
       </c>
@@ -11766,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>766</v>
       </c>
@@ -11781,7 +11783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>768</v>
       </c>
@@ -11796,7 +11798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>770</v>
       </c>
@@ -11811,7 +11813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>772</v>
       </c>
@@ -11826,7 +11828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>774</v>
       </c>
@@ -11841,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>776</v>
       </c>
@@ -11856,7 +11858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>778</v>
       </c>
@@ -11871,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>780</v>
       </c>
@@ -11886,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>782</v>
       </c>
@@ -11901,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>784</v>
       </c>
@@ -11916,7 +11918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>786</v>
       </c>
@@ -11931,7 +11933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>788</v>
       </c>
@@ -11946,7 +11948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>790</v>
       </c>
@@ -11961,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>792</v>
       </c>
@@ -11979,7 +11981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>794</v>
       </c>
@@ -11994,7 +11996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>795</v>
       </c>
@@ -12012,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>797</v>
       </c>
@@ -12027,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>799</v>
       </c>
@@ -12042,7 +12044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>801</v>
       </c>
@@ -12057,7 +12059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>803</v>
       </c>
@@ -12075,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>805</v>
       </c>
@@ -12090,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>807</v>
       </c>
@@ -12105,7 +12107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>809</v>
       </c>
@@ -12120,7 +12122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>811</v>
       </c>
@@ -12135,7 +12137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>813</v>
       </c>
@@ -12153,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>815</v>
       </c>
@@ -12171,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>817</v>
       </c>
@@ -12186,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>819</v>
       </c>
@@ -12201,7 +12203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>821</v>
       </c>
@@ -12219,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>823</v>
       </c>
@@ -12237,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>825</v>
       </c>
@@ -12255,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>827</v>
       </c>
@@ -12270,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>829</v>
       </c>
@@ -12285,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>831</v>
       </c>
@@ -12300,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>833</v>
       </c>
@@ -12315,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>835</v>
       </c>
@@ -12330,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>837</v>
       </c>
@@ -12345,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>839</v>
       </c>
@@ -12360,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>841</v>
       </c>
@@ -12375,7 +12377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>843</v>
       </c>
@@ -12390,7 +12392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>845</v>
       </c>
@@ -12405,7 +12407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>847</v>
       </c>
@@ -12423,7 +12425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>849</v>
       </c>
@@ -12438,7 +12440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>851</v>
       </c>
@@ -12453,7 +12455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>853</v>
       </c>
@@ -12468,7 +12470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>855</v>
       </c>
@@ -12483,7 +12485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>857</v>
       </c>
@@ -12498,7 +12500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>859</v>
       </c>
@@ -12513,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>861</v>
       </c>
@@ -12528,7 +12530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>863</v>
       </c>
@@ -12543,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>865</v>
       </c>
@@ -12558,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>867</v>
       </c>
@@ -12576,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>869</v>
       </c>
@@ -12591,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>871</v>
       </c>
@@ -12609,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>873</v>
       </c>
@@ -12624,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>875</v>
       </c>
@@ -12639,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>877</v>
       </c>
@@ -12654,7 +12656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>879</v>
       </c>
@@ -12672,7 +12674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>881</v>
       </c>
@@ -12687,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>883</v>
       </c>
@@ -12702,7 +12704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>885</v>
       </c>
@@ -12717,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>887</v>
       </c>
@@ -12732,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>889</v>
       </c>
@@ -12750,7 +12752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>891</v>
       </c>
@@ -12765,7 +12767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>893</v>
       </c>
@@ -12780,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>895</v>
       </c>
@@ -12795,7 +12797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>897</v>
       </c>
@@ -12810,7 +12812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>899</v>
       </c>
@@ -12825,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>901</v>
       </c>
@@ -12840,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>903</v>
       </c>
@@ -12855,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>905</v>
       </c>
@@ -12873,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>907</v>
       </c>
@@ -12888,7 +12890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>908</v>
       </c>
@@ -12903,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>910</v>
       </c>
@@ -12918,7 +12920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>912</v>
       </c>
@@ -12933,7 +12935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>914</v>
       </c>
@@ -12948,7 +12950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>916</v>
       </c>
@@ -12963,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>918</v>
       </c>
@@ -12978,7 +12980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>920</v>
       </c>
@@ -12993,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>922</v>
       </c>
@@ -13008,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>924</v>
       </c>
@@ -13023,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>926</v>
       </c>
@@ -13038,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>928</v>
       </c>
@@ -13053,7 +13055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>930</v>
       </c>
@@ -13068,7 +13070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>932</v>
       </c>
@@ -13083,7 +13085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>934</v>
       </c>
@@ -13101,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>936</v>
       </c>
@@ -13116,7 +13118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>938</v>
       </c>
@@ -13134,7 +13136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>940</v>
       </c>
@@ -13149,7 +13151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>942</v>
       </c>
@@ -13164,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>944</v>
       </c>
@@ -13179,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>946</v>
       </c>
@@ -13194,7 +13196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>948</v>
       </c>
@@ -13209,7 +13211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>950</v>
       </c>
@@ -13224,7 +13226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>952</v>
       </c>
@@ -13239,7 +13241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>954</v>
       </c>
@@ -13254,7 +13256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>956</v>
       </c>
@@ -13272,7 +13274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>958</v>
       </c>
@@ -13287,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>960</v>
       </c>
@@ -13305,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>962</v>
       </c>
@@ -13320,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>964</v>
       </c>
@@ -13335,7 +13337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>965</v>
       </c>
@@ -13350,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>967</v>
       </c>
@@ -13365,7 +13367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>969</v>
       </c>
@@ -13380,7 +13382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>971</v>
       </c>
@@ -13395,7 +13397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>973</v>
       </c>
@@ -13413,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>975</v>
       </c>
@@ -13428,7 +13430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>977</v>
       </c>
@@ -13443,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>979</v>
       </c>
@@ -13458,7 +13460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>981</v>
       </c>
@@ -13473,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>983</v>
       </c>
@@ -13488,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>984</v>
       </c>
@@ -13503,7 +13505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>986</v>
       </c>
@@ -13518,7 +13520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>988</v>
       </c>
@@ -13533,7 +13535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>990</v>
       </c>
@@ -13548,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>992</v>
       </c>
@@ -13563,7 +13565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>994</v>
       </c>
@@ -13578,7 +13580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>996</v>
       </c>
@@ -13593,7 +13595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>997</v>
       </c>
@@ -13608,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>998</v>
       </c>
@@ -13623,7 +13625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1000</v>
       </c>
@@ -13638,7 +13640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1002</v>
       </c>
@@ -13653,7 +13655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1004</v>
       </c>
@@ -13668,7 +13670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1006</v>
       </c>
@@ -13683,7 +13685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1008</v>
       </c>
@@ -13698,7 +13700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1010</v>
       </c>
@@ -13713,7 +13715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1012</v>
       </c>
@@ -13728,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1014</v>
       </c>
@@ -13743,7 +13745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1016</v>
       </c>
@@ -13761,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1018</v>
       </c>
@@ -13776,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1020</v>
       </c>
@@ -13791,7 +13793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1022</v>
       </c>
@@ -13806,7 +13808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1024</v>
       </c>
@@ -13821,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1026</v>
       </c>
@@ -13836,7 +13838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1028</v>
       </c>
@@ -13851,7 +13853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1030</v>
       </c>
@@ -13869,7 +13871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1032</v>
       </c>
@@ -13884,7 +13886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1034</v>
       </c>
@@ -13899,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1036</v>
       </c>
@@ -13914,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1038</v>
       </c>
@@ -13929,7 +13931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1040</v>
       </c>
@@ -13944,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1042</v>
       </c>
@@ -13959,7 +13961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1044</v>
       </c>
@@ -13974,7 +13976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1046</v>
       </c>
@@ -13989,7 +13991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1048</v>
       </c>
@@ -14004,7 +14006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1050</v>
       </c>
@@ -14019,7 +14021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1052</v>
       </c>
@@ -14034,7 +14036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1054</v>
       </c>
@@ -14049,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1056</v>
       </c>
@@ -14064,7 +14066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1058</v>
       </c>
@@ -14079,7 +14081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1060</v>
       </c>
@@ -14094,7 +14096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1062</v>
       </c>
@@ -14109,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1064</v>
       </c>
@@ -14124,7 +14126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1065</v>
       </c>
@@ -14139,7 +14141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1067</v>
       </c>
@@ -14154,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1069</v>
       </c>
@@ -14169,7 +14171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1071</v>
       </c>
@@ -14184,7 +14186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1073</v>
       </c>
@@ -14199,7 +14201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1075</v>
       </c>
@@ -14214,7 +14216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1077</v>
       </c>
@@ -14229,7 +14231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1079</v>
       </c>
@@ -14244,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1081</v>
       </c>
@@ -14259,7 +14261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1083</v>
       </c>
@@ -14277,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1085</v>
       </c>
@@ -14292,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1087</v>
       </c>
@@ -14307,7 +14309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1088</v>
       </c>
@@ -14322,7 +14324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1090</v>
       </c>
@@ -14337,7 +14339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1092</v>
       </c>
@@ -14352,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1094</v>
       </c>
@@ -14370,7 +14372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1096</v>
       </c>
@@ -14385,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1098</v>
       </c>
@@ -14400,7 +14402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1100</v>
       </c>
@@ -14418,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1102</v>
       </c>
@@ -14433,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1104</v>
       </c>
@@ -14451,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1106</v>
       </c>
@@ -14466,7 +14468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1108</v>
       </c>
@@ -14484,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1110</v>
       </c>
@@ -14502,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1112</v>
       </c>
@@ -14517,7 +14519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1114</v>
       </c>
@@ -14532,7 +14534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1116</v>
       </c>
@@ -14547,7 +14549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1118</v>
       </c>
@@ -14562,7 +14564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1120</v>
       </c>
@@ -14580,7 +14582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1122</v>
       </c>
@@ -14598,7 +14600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1124</v>
       </c>
@@ -14613,7 +14615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1126</v>
       </c>
@@ -14628,7 +14630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1128</v>
       </c>
@@ -14643,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1130</v>
       </c>
@@ -14658,7 +14660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1132</v>
       </c>
@@ -14673,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1134</v>
       </c>
@@ -14688,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1136</v>
       </c>
@@ -14703,7 +14705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1138</v>
       </c>
@@ -14718,7 +14720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1140</v>
       </c>
@@ -14733,7 +14735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1142</v>
       </c>
@@ -14748,7 +14750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1144</v>
       </c>
@@ -14766,7 +14768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1146</v>
       </c>
@@ -14781,7 +14783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1148</v>
       </c>
@@ -14796,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1150</v>
       </c>
@@ -14811,7 +14813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1152</v>
       </c>
@@ -14829,7 +14831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1154</v>
       </c>
@@ -14844,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1156</v>
       </c>
@@ -14859,7 +14861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1158</v>
       </c>
@@ -14877,7 +14879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1160</v>
       </c>
@@ -14892,7 +14894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1162</v>
       </c>
@@ -14907,7 +14909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1164</v>
       </c>
@@ -14922,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1166</v>
       </c>
@@ -14937,7 +14939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1168</v>
       </c>
@@ -14952,7 +14954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1170</v>
       </c>
@@ -14967,7 +14969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1172</v>
       </c>
@@ -14982,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1174</v>
       </c>
@@ -14997,7 +14999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1176</v>
       </c>
@@ -15012,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1178</v>
       </c>
@@ -15027,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1180</v>
       </c>
@@ -15042,7 +15044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1182</v>
       </c>
@@ -15057,7 +15059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1184</v>
       </c>
@@ -15072,7 +15074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1186</v>
       </c>
@@ -15087,7 +15089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1188</v>
       </c>
@@ -15102,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1190</v>
       </c>
@@ -15117,7 +15119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1192</v>
       </c>
@@ -15132,7 +15134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1194</v>
       </c>
@@ -15147,7 +15149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1196</v>
       </c>
@@ -15162,7 +15164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1198</v>
       </c>
@@ -15177,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1200</v>
       </c>
@@ -15192,7 +15194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1202</v>
       </c>
@@ -15207,7 +15209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1204</v>
       </c>
@@ -15222,7 +15224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1206</v>
       </c>
@@ -15237,7 +15239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1208</v>
       </c>
@@ -15252,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1210</v>
       </c>
@@ -15267,7 +15269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1212</v>
       </c>
@@ -15282,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1214</v>
       </c>
@@ -15297,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1216</v>
       </c>
@@ -15312,7 +15314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1217</v>
       </c>
@@ -15327,7 +15329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1219</v>
       </c>
@@ -15342,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1220</v>
       </c>
@@ -15357,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1222</v>
       </c>
@@ -15372,7 +15374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1224</v>
       </c>
@@ -15387,7 +15389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1226</v>
       </c>
@@ -15402,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1228</v>
       </c>
@@ -15417,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1230</v>
       </c>
@@ -15432,7 +15434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1232</v>
       </c>
@@ -15447,7 +15449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1234</v>
       </c>
@@ -15462,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1236</v>
       </c>
@@ -15477,7 +15479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1238</v>
       </c>
@@ -15492,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1240</v>
       </c>
@@ -15507,7 +15509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1242</v>
       </c>
@@ -15522,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1244</v>
       </c>
@@ -15537,7 +15539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1246</v>
       </c>
@@ -15555,7 +15557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1248</v>
       </c>
@@ -15570,7 +15572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1250</v>
       </c>
@@ -15585,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1252</v>
       </c>
@@ -15600,7 +15602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1254</v>
       </c>
@@ -15618,7 +15620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1256</v>
       </c>
@@ -15633,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1258</v>
       </c>
@@ -15648,7 +15650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1260</v>
       </c>
@@ -15663,7 +15665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1262</v>
       </c>
@@ -15678,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1264</v>
       </c>
@@ -15693,7 +15695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1266</v>
       </c>
@@ -15708,7 +15710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1268</v>
       </c>
@@ -15726,7 +15728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1270</v>
       </c>
@@ -15741,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1272</v>
       </c>
@@ -15756,7 +15758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1274</v>
       </c>
@@ -15771,7 +15773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1276</v>
       </c>
@@ -15786,7 +15788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1278</v>
       </c>
@@ -15801,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1280</v>
       </c>
@@ -15816,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1282</v>
       </c>
@@ -15831,7 +15833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1284</v>
       </c>
@@ -15846,7 +15848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1286</v>
       </c>
@@ -15861,7 +15863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1288</v>
       </c>
@@ -15876,7 +15878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1290</v>
       </c>
@@ -15891,7 +15893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1292</v>
       </c>
@@ -15906,7 +15908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1294</v>
       </c>
@@ -15921,7 +15923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1296</v>
       </c>
@@ -15936,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1298</v>
       </c>
@@ -15951,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1300</v>
       </c>
@@ -15966,7 +15968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1302</v>
       </c>
@@ -15981,7 +15983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1304</v>
       </c>
@@ -15996,7 +15998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1306</v>
       </c>
@@ -16011,7 +16013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1308</v>
       </c>
@@ -16029,7 +16031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1310</v>
       </c>
@@ -16047,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1312</v>
       </c>
@@ -16062,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1314</v>
       </c>
@@ -16077,7 +16079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1316</v>
       </c>
@@ -16092,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1318</v>
       </c>
@@ -16107,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1320</v>
       </c>
@@ -16122,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1322</v>
       </c>
@@ -16137,7 +16139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1324</v>
       </c>
@@ -16155,7 +16157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1326</v>
       </c>
@@ -16170,7 +16172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1328</v>
       </c>
@@ -16185,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1330</v>
       </c>
@@ -16200,7 +16202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1332</v>
       </c>
@@ -16215,7 +16217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1334</v>
       </c>
@@ -16230,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1336</v>
       </c>
@@ -16245,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1338</v>
       </c>
@@ -16263,7 +16265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1340</v>
       </c>
@@ -16281,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1342</v>
       </c>
@@ -16296,7 +16298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1344</v>
       </c>
@@ -16311,7 +16313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1346</v>
       </c>
@@ -16326,7 +16328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1348</v>
       </c>
@@ -16341,7 +16343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1350</v>
       </c>
@@ -16356,7 +16358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1352</v>
       </c>
@@ -16371,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1354</v>
       </c>
@@ -16386,7 +16388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1356</v>
       </c>
@@ -16404,7 +16406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1358</v>
       </c>
@@ -16419,7 +16421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1360</v>
       </c>
@@ -16434,7 +16436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1362</v>
       </c>
@@ -16449,7 +16451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1364</v>
       </c>
@@ -16467,7 +16469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1366</v>
       </c>
@@ -16482,7 +16484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1368</v>
       </c>
@@ -16497,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1370</v>
       </c>
@@ -16512,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1372</v>
       </c>
@@ -16527,7 +16529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1374</v>
       </c>
@@ -16542,7 +16544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1376</v>
       </c>
@@ -16557,7 +16559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1378</v>
       </c>
@@ -16572,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1380</v>
       </c>
@@ -16587,7 +16589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1382</v>
       </c>
@@ -16602,7 +16604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1384</v>
       </c>
@@ -16620,7 +16622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1386</v>
       </c>
@@ -16638,7 +16640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1388</v>
       </c>
@@ -16653,7 +16655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1390</v>
       </c>
@@ -16668,7 +16670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1392</v>
       </c>
@@ -16683,7 +16685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1394</v>
       </c>
@@ -16701,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1396</v>
       </c>
@@ -16716,7 +16718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1398</v>
       </c>
@@ -16731,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1400</v>
       </c>
@@ -16746,7 +16748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1402</v>
       </c>
@@ -16761,7 +16763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1404</v>
       </c>
@@ -16776,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1406</v>
       </c>
@@ -16791,7 +16793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1408</v>
       </c>
@@ -16806,7 +16808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1410</v>
       </c>
@@ -16821,7 +16823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1412</v>
       </c>
@@ -16836,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1414</v>
       </c>
@@ -16851,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1416</v>
       </c>
@@ -16869,7 +16871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1418</v>
       </c>
@@ -16887,7 +16889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1420</v>
       </c>
@@ -16902,7 +16904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1422</v>
       </c>
@@ -16920,7 +16922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1424</v>
       </c>
@@ -16935,7 +16937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>1426</v>
       </c>
@@ -16953,7 +16955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>1428</v>
       </c>
@@ -16968,7 +16970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>1430</v>
       </c>
@@ -16983,7 +16985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>1432</v>
       </c>
@@ -16998,7 +17000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>1434</v>
       </c>
@@ -17013,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>1436</v>
       </c>
@@ -17028,7 +17030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>1437</v>
       </c>
@@ -17043,7 +17045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>1439</v>
       </c>
@@ -17058,7 +17060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>1441</v>
       </c>
@@ -17073,7 +17075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>1443</v>
       </c>
@@ -17091,7 +17093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>1445</v>
       </c>
@@ -17109,7 +17111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>1447</v>
       </c>
@@ -17124,7 +17126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>1449</v>
       </c>
@@ -17142,7 +17144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>1451</v>
       </c>
@@ -17157,7 +17159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>1453</v>
       </c>
@@ -17172,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>1455</v>
       </c>
@@ -17187,7 +17189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>1457</v>
       </c>
@@ -17202,7 +17204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>1459</v>
       </c>
@@ -17217,7 +17219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>1461</v>
       </c>
@@ -17232,7 +17234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>1463</v>
       </c>
@@ -17247,7 +17249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>1465</v>
       </c>
@@ -17262,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>1467</v>
       </c>
@@ -17277,7 +17279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>1469</v>
       </c>
@@ -17292,7 +17294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>1471</v>
       </c>
@@ -17307,7 +17309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>1473</v>
       </c>
@@ -17322,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>1475</v>
       </c>
@@ -17337,7 +17339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>1477</v>
       </c>
@@ -17352,7 +17354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>1479</v>
       </c>
@@ -17367,7 +17369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>1481</v>
       </c>
@@ -17382,7 +17384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>1483</v>
       </c>
@@ -17397,7 +17399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>1485</v>
       </c>
@@ -17412,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>1487</v>
       </c>
@@ -17427,7 +17429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>1489</v>
       </c>
@@ -17442,7 +17444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>1491</v>
       </c>
@@ -17457,7 +17459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>1492</v>
       </c>
@@ -17475,7 +17477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>1494</v>
       </c>
@@ -17493,7 +17495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>1496</v>
       </c>
@@ -17508,7 +17510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" t="s">
         <v>1498</v>
       </c>
@@ -17523,7 +17525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" t="s">
         <v>1500</v>
       </c>
@@ -17538,7 +17540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" t="s">
         <v>1502</v>
       </c>
@@ -17556,7 +17558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" t="s">
         <v>1504</v>
       </c>
@@ -17571,7 +17573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" t="s">
         <v>1506</v>
       </c>
@@ -17586,7 +17588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" t="s">
         <v>1508</v>
       </c>
@@ -17601,7 +17603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" t="s">
         <v>1510</v>
       </c>
@@ -17616,7 +17618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" t="s">
         <v>1512</v>
       </c>
@@ -17631,7 +17633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" t="s">
         <v>1514</v>
       </c>
@@ -17649,7 +17651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" t="s">
         <v>1516</v>
       </c>
@@ -17664,7 +17666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" t="s">
         <v>1518</v>
       </c>
@@ -17679,7 +17681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" t="s">
         <v>1520</v>
       </c>
@@ -17694,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" t="s">
         <v>1522</v>
       </c>
@@ -17709,7 +17711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" t="s">
         <v>1524</v>
       </c>
@@ -17724,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" t="s">
         <v>1526</v>
       </c>
@@ -17739,7 +17741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" t="s">
         <v>1528</v>
       </c>
@@ -17754,7 +17756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" t="s">
         <v>1530</v>
       </c>
@@ -17769,7 +17771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" t="s">
         <v>1532</v>
       </c>
@@ -17784,7 +17786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" t="s">
         <v>1534</v>
       </c>
@@ -17799,7 +17801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" t="s">
         <v>1536</v>
       </c>
@@ -17814,7 +17816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" t="s">
         <v>1538</v>
       </c>
@@ -17829,7 +17831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" t="s">
         <v>1540</v>
       </c>
@@ -17844,7 +17846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" t="s">
         <v>1542</v>
       </c>
@@ -17859,7 +17861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" t="s">
         <v>1544</v>
       </c>
@@ -17874,7 +17876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" t="s">
         <v>1546</v>
       </c>
@@ -17889,7 +17891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" t="s">
         <v>1548</v>
       </c>
@@ -17904,7 +17906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" t="s">
         <v>1550</v>
       </c>
@@ -17919,7 +17921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" t="s">
         <v>1552</v>
       </c>
@@ -17934,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" t="s">
         <v>1553</v>
       </c>
@@ -17949,7 +17951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" t="s">
         <v>1555</v>
       </c>
@@ -17964,7 +17966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" t="s">
         <v>1557</v>
       </c>
@@ -17979,7 +17981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" t="s">
         <v>1559</v>
       </c>
@@ -17994,7 +17996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" t="s">
         <v>1561</v>
       </c>
@@ -18009,7 +18011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" t="s">
         <v>1563</v>
       </c>
@@ -18024,7 +18026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" t="s">
         <v>1565</v>
       </c>
@@ -18039,7 +18041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" t="s">
         <v>1567</v>
       </c>
@@ -18054,7 +18056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" t="s">
         <v>1569</v>
       </c>
@@ -18069,7 +18071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" t="s">
         <v>1571</v>
       </c>
@@ -18084,7 +18086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" t="s">
         <v>1572</v>
       </c>
@@ -18099,7 +18101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" t="s">
         <v>1574</v>
       </c>
@@ -18114,7 +18116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" t="s">
         <v>1576</v>
       </c>
@@ -18129,7 +18131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" t="s">
         <v>1578</v>
       </c>
@@ -18144,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" t="s">
         <v>1580</v>
       </c>
@@ -18159,7 +18161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" t="s">
         <v>1582</v>
       </c>
@@ -18174,7 +18176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" t="s">
         <v>1584</v>
       </c>
@@ -18189,7 +18191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" t="s">
         <v>1586</v>
       </c>
@@ -18204,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" t="s">
         <v>1588</v>
       </c>
@@ -18219,7 +18221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" t="s">
         <v>1590</v>
       </c>
@@ -18237,7 +18239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" t="s">
         <v>1592</v>
       </c>
@@ -18252,7 +18254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" t="s">
         <v>1594</v>
       </c>
@@ -18270,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" t="s">
         <v>1596</v>
       </c>
@@ -18285,7 +18287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" t="s">
         <v>1598</v>
       </c>
@@ -18300,7 +18302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" t="s">
         <v>1600</v>
       </c>
@@ -18315,7 +18317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" t="s">
         <v>1602</v>
       </c>
@@ -18330,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" t="s">
         <v>1604</v>
       </c>
@@ -18345,7 +18347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" t="s">
         <v>1606</v>
       </c>
@@ -18360,7 +18362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" t="s">
         <v>1608</v>
       </c>
@@ -18375,7 +18377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" t="s">
         <v>1610</v>
       </c>
@@ -18390,7 +18392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" t="s">
         <v>1612</v>
       </c>
@@ -18405,7 +18407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" t="s">
         <v>1614</v>
       </c>
@@ -18420,7 +18422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" t="s">
         <v>1616</v>
       </c>
@@ -18435,7 +18437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" t="s">
         <v>1618</v>
       </c>
@@ -18450,7 +18452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" t="s">
         <v>1620</v>
       </c>
@@ -18465,7 +18467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" t="s">
         <v>1622</v>
       </c>
@@ -18480,7 +18482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" t="s">
         <v>1624</v>
       </c>
@@ -18495,7 +18497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" t="s">
         <v>1626</v>
       </c>
@@ -18510,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" t="s">
         <v>1628</v>
       </c>
@@ -18525,7 +18527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" t="s">
         <v>1630</v>
       </c>
@@ -18540,7 +18542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" t="s">
         <v>1632</v>
       </c>
@@ -18555,7 +18557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" t="s">
         <v>1634</v>
       </c>
@@ -18570,7 +18572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" t="s">
         <v>1636</v>
       </c>
@@ -18585,7 +18587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" t="s">
         <v>1638</v>
       </c>
@@ -18600,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" t="s">
         <v>1640</v>
       </c>
@@ -18615,7 +18617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" t="s">
         <v>1642</v>
       </c>
@@ -18630,7 +18632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" t="s">
         <v>1644</v>
       </c>
@@ -18645,7 +18647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" t="s">
         <v>1646</v>
       </c>
@@ -18660,7 +18662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" t="s">
         <v>1648</v>
       </c>
@@ -18675,7 +18677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" t="s">
         <v>1650</v>
       </c>
@@ -18690,7 +18692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" t="s">
         <v>1652</v>
       </c>
@@ -18705,7 +18707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" t="s">
         <v>1654</v>
       </c>
@@ -18720,7 +18722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" t="s">
         <v>1656</v>
       </c>
@@ -18735,7 +18737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" t="s">
         <v>1658</v>
       </c>
@@ -18750,7 +18752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" t="s">
         <v>1660</v>
       </c>
@@ -18765,7 +18767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" t="s">
         <v>1662</v>
       </c>
@@ -18780,7 +18782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" t="s">
         <v>1664</v>
       </c>
@@ -18795,7 +18797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" t="s">
         <v>1666</v>
       </c>
@@ -18810,7 +18812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" t="s">
         <v>1668</v>
       </c>
@@ -18825,7 +18827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" t="s">
         <v>1670</v>
       </c>
@@ -18840,7 +18842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" t="s">
         <v>1672</v>
       </c>
@@ -18855,7 +18857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" t="s">
         <v>1674</v>
       </c>
@@ -18870,7 +18872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" t="s">
         <v>1676</v>
       </c>
@@ -18885,7 +18887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" t="s">
         <v>1678</v>
       </c>
@@ -18900,7 +18902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" t="s">
         <v>1680</v>
       </c>
@@ -18918,7 +18920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" t="s">
         <v>1682</v>
       </c>
@@ -18933,7 +18935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" t="s">
         <v>1684</v>
       </c>
@@ -18948,7 +18950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" t="s">
         <v>1686</v>
       </c>
@@ -18963,7 +18965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" t="s">
         <v>1688</v>
       </c>
@@ -18978,7 +18980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A857" t="s">
         <v>1690</v>
       </c>
@@ -18993,7 +18995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" t="s">
         <v>1692</v>
       </c>
@@ -19008,7 +19010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" t="s">
         <v>1694</v>
       </c>
@@ -19026,7 +19028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" t="s">
         <v>1696</v>
       </c>
@@ -19041,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A861" t="s">
         <v>1698</v>
       </c>
@@ -19059,7 +19061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A862" t="s">
         <v>1700</v>
       </c>
@@ -19077,7 +19079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A863" t="s">
         <v>1702</v>
       </c>
@@ -19092,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A864" t="s">
         <v>1704</v>
       </c>
@@ -19107,7 +19109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A865" t="s">
         <v>1706</v>
       </c>
@@ -19122,7 +19124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A866" t="s">
         <v>1708</v>
       </c>
@@ -19137,7 +19139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A867" t="s">
         <v>1710</v>
       </c>
@@ -19152,7 +19154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A868" t="s">
         <v>1712</v>
       </c>
@@ -19167,7 +19169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A869" t="s">
         <v>1714</v>
       </c>
@@ -19182,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A870" t="s">
         <v>1716</v>
       </c>
@@ -19197,7 +19199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A871" t="s">
         <v>1718</v>
       </c>
@@ -19212,7 +19214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A872" t="s">
         <v>1720</v>
       </c>
@@ -19230,7 +19232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A873" t="s">
         <v>1722</v>
       </c>
@@ -19245,7 +19247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A874" t="s">
         <v>1724</v>
       </c>
@@ -19260,7 +19262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A875" t="s">
         <v>1726</v>
       </c>
@@ -19275,7 +19277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A876" t="s">
         <v>1728</v>
       </c>
@@ -19290,7 +19292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A877" t="s">
         <v>1730</v>
       </c>
@@ -19308,7 +19310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A878" t="s">
         <v>1732</v>
       </c>
@@ -19326,7 +19328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A879" t="s">
         <v>1734</v>
       </c>
@@ -19341,7 +19343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A880" t="s">
         <v>1736</v>
       </c>
@@ -19359,7 +19361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A881" t="s">
         <v>1738</v>
       </c>
@@ -19374,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A882" t="s">
         <v>1740</v>
       </c>
@@ -19392,7 +19394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A883" t="s">
         <v>1742</v>
       </c>
@@ -19410,7 +19412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A884" t="s">
         <v>1744</v>
       </c>
@@ -19428,7 +19430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A885" t="s">
         <v>1746</v>
       </c>
@@ -19446,7 +19448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A886" t="s">
         <v>1748</v>
       </c>
@@ -19464,7 +19466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A887" t="s">
         <v>1749</v>
       </c>
@@ -19479,7 +19481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A888" t="s">
         <v>1751</v>
       </c>
@@ -19494,7 +19496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A889" t="s">
         <v>1753</v>
       </c>
@@ -19509,7 +19511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A890" t="s">
         <v>1755</v>
       </c>
@@ -19527,7 +19529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A891" t="s">
         <v>1757</v>
       </c>
@@ -19542,7 +19544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A892" t="s">
         <v>1759</v>
       </c>
@@ -19557,7 +19559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A893" t="s">
         <v>1761</v>
       </c>
@@ -19572,7 +19574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A894" t="s">
         <v>1763</v>
       </c>
@@ -19587,7 +19589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A895" t="s">
         <v>1764</v>
       </c>
@@ -19602,7 +19604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A896" t="s">
         <v>1766</v>
       </c>
@@ -19617,7 +19619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A897" t="s">
         <v>1768</v>
       </c>
@@ -19632,7 +19634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A898" t="s">
         <v>1770</v>
       </c>
@@ -19650,7 +19652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A899" t="s">
         <v>1772</v>
       </c>
@@ -19665,7 +19667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A900" t="s">
         <v>1774</v>
       </c>
@@ -19680,7 +19682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A901" t="s">
         <v>1776</v>
       </c>
@@ -19698,7 +19700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A902" t="s">
         <v>1778</v>
       </c>
@@ -19716,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A903" t="s">
         <v>1780</v>
       </c>
@@ -19731,7 +19733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A904" t="s">
         <v>1782</v>
       </c>
@@ -19746,7 +19748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A905" t="s">
         <v>1783</v>
       </c>
@@ -19761,7 +19763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A906" t="s">
         <v>1785</v>
       </c>
@@ -19779,7 +19781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A907" t="s">
         <v>1787</v>
       </c>
@@ -19794,7 +19796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A908" t="s">
         <v>1789</v>
       </c>
@@ -19809,7 +19811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A909" t="s">
         <v>1791</v>
       </c>
@@ -19824,7 +19826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A910" t="s">
         <v>1792</v>
       </c>
@@ -19840,16 +19842,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E910" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E910" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
